--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value622.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value622.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.265887072393649</v>
+        <v>1.287956476211548</v>
       </c>
       <c r="B1">
-        <v>2.485916439602166</v>
+        <v>2.937998533248901</v>
       </c>
       <c r="C1">
-        <v>4.325385065080865</v>
+        <v>5.273559093475342</v>
       </c>
       <c r="D1">
-        <v>2.58445599199885</v>
+        <v>1.847816824913025</v>
       </c>
       <c r="E1">
-        <v>1.040616245402201</v>
+        <v>1.0152188539505</v>
       </c>
     </row>
   </sheetData>
